--- a/biology/Histoire de la zoologie et de la botanique/Robert_McCormick/Robert_McCormick.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Robert_McCormick/Robert_McCormick.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Robert McCormick (né le 22 juillet 1800[1] à Great Yarmouth et décédé le 25 octobre 1890) est un chirurgien, explorateur et naturaliste anglais de la Royal Navy.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Robert McCormick (né le 22 juillet 1800 à Great Yarmouth et décédé le 25 octobre 1890) est un chirurgien, explorateur et naturaliste anglais de la Royal Navy.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Robert McCormick commence sa carrière comme assistant chirurgien sur le HMS Hecla en 1827, puis devient le chirurgien de bord sur le Beagle (navire dans lequel Charles Darwin développa sa théorie de la sélection naturelle) en 1832. Il y occupe officiellement les fonctions de naturaliste[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Robert McCormick commence sa carrière comme assistant chirurgien sur le HMS Hecla en 1827, puis devient le chirurgien de bord sur le Beagle (navire dans lequel Charles Darwin développa sa théorie de la sélection naturelle) en 1832. Il y occupe officiellement les fonctions de naturaliste
 Entre 1839 et 1842, il est le médecin de bord de l'expédition de James Clark Ross en Antarctique, destinée à localiser le pôle Sud.
 Il publie son autobiographie Voyages of Discovery in the Arctic and Antarctic Seas and around the World en 1884.
 Le Labbe de MacCormick, un oiseau marin de la tribu des Stercorariinis porte son nom car il en a réalisé la première description le 12 janvier 1841 sur une île d'Antarctique.
